--- a/data/MetalliCan/cleaned_data/material_df_sd_norm.xlsx
+++ b/data/MetalliCan/cleaned_data/material_df_sd_norm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="125">
   <si>
     <t>technosphere_id</t>
   </si>
@@ -76,18 +76,6 @@
     <t>normalization_key</t>
   </si>
   <si>
-    <t>facility_name</t>
-  </si>
-  <si>
-    <t>facility_group_name</t>
-  </si>
-  <si>
-    <t>mining_processing_type</t>
-  </si>
-  <si>
-    <t>commodities</t>
-  </si>
-  <si>
     <t>TECH-6dc537e6-2023-2</t>
   </si>
   <si>
@@ -385,6 +373,9 @@
     <t>L×density→t</t>
   </si>
   <si>
+    <t>missing_density</t>
+  </si>
+  <si>
     <t>kg→t</t>
   </si>
   <si>
@@ -394,61 +385,10 @@
     <t>kl→L × density kg/L; density=0.88</t>
   </si>
   <si>
-    <t>l→L × density kg/L; density=1.51</t>
-  </si>
-  <si>
-    <t>l→L × density kg/L; density=1.84</t>
-  </si>
-  <si>
-    <t>kl→L × density kg/L; density=1.19</t>
+    <t>volume reported; no density mapping for this subflow</t>
   </si>
   <si>
     <t>kg/1000</t>
-  </si>
-  <si>
-    <t>Éléonore</t>
-  </si>
-  <si>
-    <t>Island</t>
-  </si>
-  <si>
-    <t>Musselwhite</t>
-  </si>
-  <si>
-    <t>New Afton</t>
-  </si>
-  <si>
-    <t>Hoyle Pond</t>
-  </si>
-  <si>
-    <t>Rainy River</t>
-  </si>
-  <si>
-    <t>Westwood-Doyon</t>
-  </si>
-  <si>
-    <t>Young-Davidson</t>
-  </si>
-  <si>
-    <t>Porcupine complex</t>
-  </si>
-  <si>
-    <t>Underground, concentrator</t>
-  </si>
-  <si>
-    <t>Underground</t>
-  </si>
-  <si>
-    <t>Open-pit, underground, concentrator</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Gold, silver</t>
-  </si>
-  <si>
-    <t>Gold, copper, silver</t>
   </si>
 </sst>
 </file>
@@ -806,13 +746,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X51"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -873,55 +813,43 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
       <c r="B2">
         <v>2023</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F2">
         <v>27374</v>
       </c>
       <c r="H2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" t="s">
         <v>114</v>
-      </c>
-      <c r="K2" t="s">
-        <v>118</v>
       </c>
       <c r="L2">
         <v>27374</v>
       </c>
       <c r="M2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O2" t="b">
         <v>0</v>
@@ -938,52 +866,43 @@
       <c r="T2" t="s">
         <v>7</v>
       </c>
-      <c r="U2" t="s">
-        <v>130</v>
-      </c>
-      <c r="W2" t="s">
-        <v>139</v>
-      </c>
-      <c r="X2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>2023</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F3">
         <v>2229</v>
       </c>
       <c r="H3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" t="s">
         <v>114</v>
-      </c>
-      <c r="K3" t="s">
-        <v>118</v>
       </c>
       <c r="L3">
         <v>2229</v>
       </c>
       <c r="M3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
@@ -1000,52 +919,43 @@
       <c r="T3" t="s">
         <v>7</v>
       </c>
-      <c r="U3" t="s">
-        <v>130</v>
-      </c>
-      <c r="W3" t="s">
-        <v>139</v>
-      </c>
-      <c r="X3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>2023</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F4">
         <v>380.687</v>
       </c>
       <c r="H4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" t="s">
         <v>114</v>
-      </c>
-      <c r="K4" t="s">
-        <v>118</v>
       </c>
       <c r="L4">
         <v>335.00456</v>
       </c>
       <c r="M4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N4" t="s">
         <v>122</v>
-      </c>
-      <c r="N4" t="s">
-        <v>125</v>
       </c>
       <c r="O4" t="b">
         <v>0</v>
@@ -1062,55 +972,43 @@
       <c r="T4" t="s">
         <v>7</v>
       </c>
-      <c r="U4" t="s">
-        <v>130</v>
-      </c>
-      <c r="W4" t="s">
-        <v>139</v>
-      </c>
-      <c r="X4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>2023</v>
       </c>
       <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
         <v>74</v>
       </c>
-      <c r="D5" t="s">
-        <v>78</v>
-      </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F5">
         <v>26575</v>
       </c>
       <c r="H5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" t="s">
         <v>114</v>
       </c>
-      <c r="K5" t="s">
-        <v>118</v>
-      </c>
-      <c r="L5">
-        <v>40.12825</v>
-      </c>
       <c r="M5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <v>1661000</v>
@@ -1118,58 +1016,46 @@
       <c r="R5">
         <v>1661000</v>
       </c>
-      <c r="S5">
-        <v>2.415909090909091E-05</v>
-      </c>
       <c r="T5" t="s">
         <v>7</v>
       </c>
-      <c r="U5" t="s">
-        <v>130</v>
-      </c>
-      <c r="W5" t="s">
-        <v>139</v>
-      </c>
-      <c r="X5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>2023</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F6">
         <v>838.8</v>
       </c>
       <c r="H6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" t="s">
         <v>114</v>
-      </c>
-      <c r="K6" t="s">
-        <v>118</v>
       </c>
       <c r="L6">
         <v>838.8</v>
       </c>
       <c r="M6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O6" t="b">
         <v>0</v>
@@ -1186,55 +1072,43 @@
       <c r="T6" t="s">
         <v>7</v>
       </c>
-      <c r="U6" t="s">
-        <v>130</v>
-      </c>
-      <c r="W6" t="s">
-        <v>139</v>
-      </c>
-      <c r="X6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>2023</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F7">
         <v>73.95999999999999</v>
       </c>
       <c r="H7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" t="s">
         <v>114</v>
       </c>
-      <c r="K7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L7">
-        <v>0.1360864</v>
-      </c>
       <c r="M7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <v>1661000</v>
@@ -1242,58 +1116,46 @@
       <c r="R7">
         <v>1661000</v>
       </c>
-      <c r="S7">
-        <v>8.193040337146298E-08</v>
-      </c>
       <c r="T7" t="s">
         <v>7</v>
       </c>
-      <c r="U7" t="s">
-        <v>130</v>
-      </c>
-      <c r="W7" t="s">
-        <v>139</v>
-      </c>
-      <c r="X7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>2023</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F8">
         <v>241.250566996281</v>
       </c>
       <c r="H8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" t="s">
         <v>114</v>
-      </c>
-      <c r="K8" t="s">
-        <v>118</v>
       </c>
       <c r="L8">
         <v>241.250566996281</v>
       </c>
       <c r="M8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
@@ -1310,52 +1172,43 @@
       <c r="T8" t="s">
         <v>7</v>
       </c>
-      <c r="U8" t="s">
-        <v>130</v>
-      </c>
-      <c r="W8" t="s">
-        <v>139</v>
-      </c>
-      <c r="X8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>2023</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F9">
         <v>245</v>
       </c>
       <c r="H9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s">
         <v>115</v>
-      </c>
-      <c r="K9" t="s">
-        <v>119</v>
       </c>
       <c r="L9">
         <v>245</v>
       </c>
       <c r="M9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O9" t="b">
         <v>0</v>
@@ -1372,52 +1225,43 @@
       <c r="T9" t="s">
         <v>7</v>
       </c>
-      <c r="U9" t="s">
-        <v>131</v>
-      </c>
-      <c r="W9" t="s">
-        <v>139</v>
-      </c>
-      <c r="X9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>2023</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F10">
         <v>486.3</v>
       </c>
       <c r="H10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
         <v>115</v>
-      </c>
-      <c r="K10" t="s">
-        <v>119</v>
       </c>
       <c r="L10">
         <v>486.3</v>
       </c>
       <c r="M10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O10" t="b">
         <v>0</v>
@@ -1434,52 +1278,43 @@
       <c r="T10" t="s">
         <v>7</v>
       </c>
-      <c r="U10" t="s">
-        <v>131</v>
-      </c>
-      <c r="W10" t="s">
-        <v>139</v>
-      </c>
-      <c r="X10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>2023</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F11">
         <v>9417.6</v>
       </c>
       <c r="H11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
         <v>114</v>
-      </c>
-      <c r="K11" t="s">
-        <v>118</v>
       </c>
       <c r="L11">
         <v>9417.6</v>
       </c>
       <c r="M11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O11" t="b">
         <v>0</v>
@@ -1496,55 +1331,43 @@
       <c r="T11" t="s">
         <v>7</v>
       </c>
-      <c r="U11" t="s">
-        <v>132</v>
-      </c>
-      <c r="W11" t="s">
-        <v>139</v>
-      </c>
-      <c r="X11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>2023</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F12">
         <v>57.2</v>
       </c>
       <c r="H12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" t="s">
         <v>114</v>
       </c>
-      <c r="K12" t="s">
-        <v>118</v>
-      </c>
-      <c r="L12">
-        <v>68.068</v>
-      </c>
       <c r="M12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
         <v>1028000</v>
@@ -1552,58 +1375,46 @@
       <c r="R12">
         <v>1028000</v>
       </c>
-      <c r="S12">
-        <v>6.621400778210116E-05</v>
-      </c>
       <c r="T12" t="s">
         <v>7</v>
       </c>
-      <c r="U12" t="s">
-        <v>132</v>
-      </c>
-      <c r="W12" t="s">
-        <v>139</v>
-      </c>
-      <c r="X12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>2023</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F13">
         <v>924.081</v>
       </c>
       <c r="H13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" t="s">
         <v>114</v>
-      </c>
-      <c r="K13" t="s">
-        <v>118</v>
       </c>
       <c r="L13">
         <v>924.081</v>
       </c>
       <c r="M13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O13" t="b">
         <v>0</v>
@@ -1620,52 +1431,43 @@
       <c r="T13" t="s">
         <v>7</v>
       </c>
-      <c r="U13" t="s">
-        <v>132</v>
-      </c>
-      <c r="W13" t="s">
-        <v>139</v>
-      </c>
-      <c r="X13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>2023</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F14">
         <v>336.521</v>
       </c>
       <c r="H14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" t="s">
         <v>114</v>
-      </c>
-      <c r="K14" t="s">
-        <v>118</v>
       </c>
       <c r="L14">
         <v>296.13848</v>
       </c>
       <c r="M14" t="s">
+        <v>118</v>
+      </c>
+      <c r="N14" t="s">
         <v>122</v>
-      </c>
-      <c r="N14" t="s">
-        <v>125</v>
       </c>
       <c r="O14" t="b">
         <v>0</v>
@@ -1682,52 +1484,43 @@
       <c r="T14" t="s">
         <v>7</v>
       </c>
-      <c r="U14" t="s">
-        <v>132</v>
-      </c>
-      <c r="W14" t="s">
-        <v>139</v>
-      </c>
-      <c r="X14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>2023</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F15">
         <v>390.003</v>
       </c>
       <c r="H15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J15" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" t="s">
         <v>114</v>
-      </c>
-      <c r="K15" t="s">
-        <v>118</v>
       </c>
       <c r="L15">
         <v>390.003</v>
       </c>
       <c r="M15" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O15" t="b">
         <v>0</v>
@@ -1744,52 +1537,43 @@
       <c r="T15" t="s">
         <v>7</v>
       </c>
-      <c r="U15" t="s">
-        <v>132</v>
-      </c>
-      <c r="W15" t="s">
-        <v>139</v>
-      </c>
-      <c r="X15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <v>2023</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F16">
         <v>100.705343372947</v>
       </c>
       <c r="H16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J16" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" t="s">
         <v>114</v>
-      </c>
-      <c r="K16" t="s">
-        <v>118</v>
       </c>
       <c r="L16">
         <v>100.705343372947</v>
       </c>
       <c r="M16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O16" t="b">
         <v>0</v>
@@ -1806,52 +1590,43 @@
       <c r="T16" t="s">
         <v>7</v>
       </c>
-      <c r="U16" t="s">
-        <v>132</v>
-      </c>
-      <c r="W16" t="s">
-        <v>139</v>
-      </c>
-      <c r="X16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>2023</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F17">
         <v>980</v>
       </c>
       <c r="H17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J17" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" t="s">
         <v>116</v>
-      </c>
-      <c r="K17" t="s">
-        <v>120</v>
       </c>
       <c r="L17">
         <v>980</v>
       </c>
       <c r="M17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O17" t="b">
         <v>0</v>
@@ -1868,52 +1643,43 @@
       <c r="T17" t="s">
         <v>7</v>
       </c>
-      <c r="U17" t="s">
-        <v>133</v>
-      </c>
-      <c r="W17" t="s">
-        <v>139</v>
-      </c>
-      <c r="X17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B18">
         <v>2023</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F18">
         <v>179</v>
       </c>
       <c r="H18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J18" t="s">
+        <v>112</v>
+      </c>
+      <c r="K18" t="s">
         <v>116</v>
-      </c>
-      <c r="K18" t="s">
-        <v>120</v>
       </c>
       <c r="L18">
         <v>179</v>
       </c>
       <c r="M18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O18" t="b">
         <v>0</v>
@@ -1930,52 +1696,43 @@
       <c r="T18" t="s">
         <v>7</v>
       </c>
-      <c r="U18" t="s">
-        <v>133</v>
-      </c>
-      <c r="W18" t="s">
-        <v>139</v>
-      </c>
-      <c r="X18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>2023</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F19">
         <v>38000</v>
       </c>
       <c r="H19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J19" t="s">
+        <v>112</v>
+      </c>
+      <c r="K19" t="s">
         <v>116</v>
-      </c>
-      <c r="K19" t="s">
-        <v>120</v>
       </c>
       <c r="L19">
         <v>38</v>
       </c>
       <c r="M19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O19" t="b">
         <v>0</v>
@@ -1992,52 +1749,43 @@
       <c r="T19" t="s">
         <v>7</v>
       </c>
-      <c r="U19" t="s">
-        <v>133</v>
-      </c>
-      <c r="W19" t="s">
-        <v>139</v>
-      </c>
-      <c r="X19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B20">
         <v>2023</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F20">
         <v>192</v>
       </c>
       <c r="H20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J20" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" t="s">
         <v>116</v>
-      </c>
-      <c r="K20" t="s">
-        <v>120</v>
       </c>
       <c r="L20">
         <v>192</v>
       </c>
       <c r="M20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O20" t="b">
         <v>0</v>
@@ -2054,52 +1802,43 @@
       <c r="T20" t="s">
         <v>7</v>
       </c>
-      <c r="U20" t="s">
-        <v>133</v>
-      </c>
-      <c r="W20" t="s">
-        <v>139</v>
-      </c>
-      <c r="X20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B21">
         <v>2023</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F21">
         <v>2724</v>
       </c>
       <c r="H21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J21" t="s">
+        <v>112</v>
+      </c>
+      <c r="K21" t="s">
         <v>116</v>
-      </c>
-      <c r="K21" t="s">
-        <v>120</v>
       </c>
       <c r="L21">
         <v>2724</v>
       </c>
       <c r="M21" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O21" t="b">
         <v>0</v>
@@ -2116,52 +1855,43 @@
       <c r="T21" t="s">
         <v>7</v>
       </c>
-      <c r="U21" t="s">
-        <v>133</v>
-      </c>
-      <c r="W21" t="s">
-        <v>139</v>
-      </c>
-      <c r="X21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B22">
         <v>2023</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F22">
         <v>55</v>
       </c>
       <c r="H22" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J22" t="s">
+        <v>112</v>
+      </c>
+      <c r="K22" t="s">
         <v>116</v>
-      </c>
-      <c r="K22" t="s">
-        <v>120</v>
       </c>
       <c r="L22">
         <v>55</v>
       </c>
       <c r="M22" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O22" t="b">
         <v>0</v>
@@ -2178,52 +1908,43 @@
       <c r="T22" t="s">
         <v>7</v>
       </c>
-      <c r="U22" t="s">
-        <v>133</v>
-      </c>
-      <c r="W22" t="s">
-        <v>139</v>
-      </c>
-      <c r="X22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B23">
         <v>2023</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F23">
         <v>583</v>
       </c>
       <c r="H23" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J23" t="s">
+        <v>112</v>
+      </c>
+      <c r="K23" t="s">
         <v>116</v>
-      </c>
-      <c r="K23" t="s">
-        <v>120</v>
       </c>
       <c r="L23">
         <v>583</v>
       </c>
       <c r="M23" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O23" t="b">
         <v>0</v>
@@ -2240,52 +1961,43 @@
       <c r="T23" t="s">
         <v>7</v>
       </c>
-      <c r="U23" t="s">
-        <v>133</v>
-      </c>
-      <c r="W23" t="s">
-        <v>139</v>
-      </c>
-      <c r="X23" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24">
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B24">
         <v>2023</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F24">
         <v>12578</v>
       </c>
       <c r="I24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J24" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" t="s">
         <v>114</v>
-      </c>
-      <c r="K24" t="s">
-        <v>118</v>
       </c>
       <c r="L24">
         <v>12578</v>
       </c>
       <c r="M24" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N24" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O24" t="b">
         <v>0</v>
@@ -2302,58 +2014,43 @@
       <c r="T24" t="s">
         <v>8</v>
       </c>
-      <c r="U24" t="s">
-        <v>134</v>
-      </c>
-      <c r="V24" t="s">
-        <v>138</v>
-      </c>
-      <c r="W24" t="s">
-        <v>140</v>
-      </c>
-      <c r="X24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B25">
         <v>2023</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F25">
         <v>2.255</v>
       </c>
       <c r="I25" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J25" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25" t="s">
         <v>114</v>
       </c>
-      <c r="K25" t="s">
-        <v>118</v>
-      </c>
-      <c r="L25">
-        <v>2.68345</v>
-      </c>
       <c r="M25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N25" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
         <v>2911000</v>
@@ -2361,61 +2058,46 @@
       <c r="R25">
         <v>2911000</v>
       </c>
-      <c r="S25">
-        <v>9.218309859154929E-07</v>
-      </c>
       <c r="T25" t="s">
         <v>8</v>
       </c>
-      <c r="U25" t="s">
-        <v>134</v>
-      </c>
-      <c r="V25" t="s">
-        <v>138</v>
-      </c>
-      <c r="W25" t="s">
-        <v>140</v>
-      </c>
-      <c r="X25" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24">
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B26">
         <v>2023</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F26">
         <v>4346.921</v>
       </c>
       <c r="I26" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J26" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" t="s">
         <v>114</v>
-      </c>
-      <c r="K26" t="s">
-        <v>118</v>
       </c>
       <c r="L26">
         <v>4346.921</v>
       </c>
       <c r="M26" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O26" t="b">
         <v>0</v>
@@ -2432,55 +2114,43 @@
       <c r="T26" t="s">
         <v>8</v>
       </c>
-      <c r="U26" t="s">
-        <v>134</v>
-      </c>
-      <c r="V26" t="s">
-        <v>138</v>
-      </c>
-      <c r="W26" t="s">
-        <v>140</v>
-      </c>
-      <c r="X26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24">
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B27">
         <v>2023</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F27">
         <v>619.366</v>
       </c>
       <c r="I27" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J27" t="s">
+        <v>110</v>
+      </c>
+      <c r="K27" t="s">
         <v>114</v>
-      </c>
-      <c r="K27" t="s">
-        <v>118</v>
       </c>
       <c r="L27">
         <v>545.0420799999999</v>
       </c>
       <c r="M27" t="s">
+        <v>118</v>
+      </c>
+      <c r="N27" t="s">
         <v>122</v>
-      </c>
-      <c r="N27" t="s">
-        <v>125</v>
       </c>
       <c r="O27" t="b">
         <v>0</v>
@@ -2497,58 +2167,43 @@
       <c r="T27" t="s">
         <v>8</v>
       </c>
-      <c r="U27" t="s">
-        <v>134</v>
-      </c>
-      <c r="V27" t="s">
-        <v>138</v>
-      </c>
-      <c r="W27" t="s">
-        <v>140</v>
-      </c>
-      <c r="X27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B28">
         <v>2023</v>
       </c>
       <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" t="s">
         <v>74</v>
       </c>
-      <c r="D28" t="s">
-        <v>78</v>
-      </c>
       <c r="E28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F28">
         <v>175</v>
       </c>
       <c r="I28" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J28" t="s">
+        <v>110</v>
+      </c>
+      <c r="K28" t="s">
         <v>114</v>
       </c>
-      <c r="K28" t="s">
-        <v>118</v>
-      </c>
-      <c r="L28">
-        <v>0.26425</v>
-      </c>
       <c r="M28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
         <v>2911000</v>
@@ -2556,61 +2211,46 @@
       <c r="R28">
         <v>2911000</v>
       </c>
-      <c r="S28">
-        <v>9.077636551013398E-08</v>
-      </c>
       <c r="T28" t="s">
         <v>8</v>
       </c>
-      <c r="U28" t="s">
-        <v>134</v>
-      </c>
-      <c r="V28" t="s">
-        <v>138</v>
-      </c>
-      <c r="W28" t="s">
-        <v>140</v>
-      </c>
-      <c r="X28" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24">
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B29">
         <v>2023</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F29">
         <v>734.521</v>
       </c>
       <c r="I29" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K29" t="s">
         <v>114</v>
-      </c>
-      <c r="K29" t="s">
-        <v>118</v>
       </c>
       <c r="L29">
         <v>734.521</v>
       </c>
       <c r="M29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O29" t="b">
         <v>0</v>
@@ -2627,58 +2267,43 @@
       <c r="T29" t="s">
         <v>8</v>
       </c>
-      <c r="U29" t="s">
-        <v>134</v>
-      </c>
-      <c r="V29" t="s">
-        <v>138</v>
-      </c>
-      <c r="W29" t="s">
-        <v>140</v>
-      </c>
-      <c r="X29" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24">
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B30">
         <v>2023</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F30">
         <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J30" t="s">
+        <v>110</v>
+      </c>
+      <c r="K30" t="s">
         <v>114</v>
       </c>
-      <c r="K30" t="s">
-        <v>118</v>
-      </c>
-      <c r="L30">
-        <v>0.009200000000000002</v>
-      </c>
       <c r="M30" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N30" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
         <v>2911000</v>
@@ -2686,61 +2311,46 @@
       <c r="R30">
         <v>2911000</v>
       </c>
-      <c r="S30">
-        <v>3.160425970456888E-09</v>
-      </c>
       <c r="T30" t="s">
         <v>8</v>
       </c>
-      <c r="U30" t="s">
-        <v>134</v>
-      </c>
-      <c r="V30" t="s">
-        <v>138</v>
-      </c>
-      <c r="W30" t="s">
-        <v>140</v>
-      </c>
-      <c r="X30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24">
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B31">
         <v>2023</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F31">
         <v>626.983579787717</v>
       </c>
       <c r="I31" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J31" t="s">
+        <v>110</v>
+      </c>
+      <c r="K31" t="s">
         <v>114</v>
-      </c>
-      <c r="K31" t="s">
-        <v>118</v>
       </c>
       <c r="L31">
         <v>626.983579787717</v>
       </c>
       <c r="M31" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O31" t="b">
         <v>0</v>
@@ -2757,55 +2367,43 @@
       <c r="T31" t="s">
         <v>8</v>
       </c>
-      <c r="U31" t="s">
-        <v>134</v>
-      </c>
-      <c r="V31" t="s">
-        <v>138</v>
-      </c>
-      <c r="W31" t="s">
-        <v>140</v>
-      </c>
-      <c r="X31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24">
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B32">
         <v>2023</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E32" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F32">
         <v>5977.02</v>
       </c>
       <c r="H32" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J32" t="s">
+        <v>112</v>
+      </c>
+      <c r="K32" t="s">
         <v>116</v>
-      </c>
-      <c r="K32" t="s">
-        <v>120</v>
       </c>
       <c r="L32">
         <v>5977.02</v>
       </c>
       <c r="M32" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N32" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O32" t="b">
         <v>0</v>
@@ -2822,52 +2420,43 @@
       <c r="T32" t="s">
         <v>7</v>
       </c>
-      <c r="U32" t="s">
-        <v>135</v>
-      </c>
-      <c r="W32" t="s">
-        <v>141</v>
-      </c>
-      <c r="X32" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24">
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B33">
         <v>2023</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F33">
         <v>2819.39</v>
       </c>
       <c r="H33" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J33" t="s">
+        <v>112</v>
+      </c>
+      <c r="K33" t="s">
         <v>116</v>
-      </c>
-      <c r="K33" t="s">
-        <v>120</v>
       </c>
       <c r="L33">
         <v>2819.39</v>
       </c>
       <c r="M33" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O33" t="b">
         <v>0</v>
@@ -2884,52 +2473,43 @@
       <c r="T33" t="s">
         <v>7</v>
       </c>
-      <c r="U33" t="s">
-        <v>135</v>
-      </c>
-      <c r="W33" t="s">
-        <v>141</v>
-      </c>
-      <c r="X33" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24">
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B34">
         <v>2023</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F34">
         <v>231239.82</v>
       </c>
       <c r="H34" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J34" t="s">
+        <v>112</v>
+      </c>
+      <c r="K34" t="s">
         <v>116</v>
-      </c>
-      <c r="K34" t="s">
-        <v>120</v>
       </c>
       <c r="L34">
         <v>231.23982</v>
       </c>
       <c r="M34" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N34" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O34" t="b">
         <v>0</v>
@@ -2946,52 +2526,43 @@
       <c r="T34" t="s">
         <v>7</v>
       </c>
-      <c r="U34" t="s">
-        <v>135</v>
-      </c>
-      <c r="W34" t="s">
-        <v>141</v>
-      </c>
-      <c r="X34" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24">
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B35">
         <v>2023</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F35">
         <v>526.21</v>
       </c>
       <c r="H35" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J35" t="s">
+        <v>112</v>
+      </c>
+      <c r="K35" t="s">
         <v>116</v>
-      </c>
-      <c r="K35" t="s">
-        <v>120</v>
       </c>
       <c r="L35">
         <v>526.21</v>
       </c>
       <c r="M35" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N35" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O35" t="b">
         <v>0</v>
@@ -3008,52 +2579,43 @@
       <c r="T35" t="s">
         <v>7</v>
       </c>
-      <c r="U35" t="s">
-        <v>135</v>
-      </c>
-      <c r="W35" t="s">
-        <v>141</v>
-      </c>
-      <c r="X35" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24">
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B36">
         <v>2023</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F36">
         <v>2269.57</v>
       </c>
       <c r="H36" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J36" t="s">
+        <v>112</v>
+      </c>
+      <c r="K36" t="s">
         <v>116</v>
-      </c>
-      <c r="K36" t="s">
-        <v>120</v>
       </c>
       <c r="L36">
         <v>2269.57</v>
       </c>
       <c r="M36" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N36" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O36" t="b">
         <v>0</v>
@@ -3070,52 +2632,43 @@
       <c r="T36" t="s">
         <v>7</v>
       </c>
-      <c r="U36" t="s">
-        <v>135</v>
-      </c>
-      <c r="W36" t="s">
-        <v>141</v>
-      </c>
-      <c r="X36" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24">
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B37">
         <v>2023</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E37" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F37">
         <v>149.1</v>
       </c>
       <c r="H37" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J37" t="s">
+        <v>112</v>
+      </c>
+      <c r="K37" t="s">
         <v>116</v>
-      </c>
-      <c r="K37" t="s">
-        <v>120</v>
       </c>
       <c r="L37">
         <v>149.1</v>
       </c>
       <c r="M37" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N37" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O37" t="b">
         <v>0</v>
@@ -3132,52 +2685,43 @@
       <c r="T37" t="s">
         <v>7</v>
       </c>
-      <c r="U37" t="s">
-        <v>135</v>
-      </c>
-      <c r="W37" t="s">
-        <v>141</v>
-      </c>
-      <c r="X37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24">
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B38">
         <v>2023</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E38" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F38">
         <v>6390.4</v>
       </c>
       <c r="H38" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J38" t="s">
+        <v>112</v>
+      </c>
+      <c r="K38" t="s">
         <v>116</v>
-      </c>
-      <c r="K38" t="s">
-        <v>120</v>
       </c>
       <c r="L38">
         <v>6390.4</v>
       </c>
       <c r="M38" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N38" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O38" t="b">
         <v>0</v>
@@ -3194,52 +2738,43 @@
       <c r="T38" t="s">
         <v>7</v>
       </c>
-      <c r="U38" t="s">
-        <v>135</v>
-      </c>
-      <c r="W38" t="s">
-        <v>141</v>
-      </c>
-      <c r="X38" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24">
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B39">
         <v>2023</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E39" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F39">
         <v>35.4</v>
       </c>
       <c r="H39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J39" t="s">
+        <v>113</v>
+      </c>
+      <c r="K39" t="s">
         <v>117</v>
-      </c>
-      <c r="K39" t="s">
-        <v>121</v>
       </c>
       <c r="L39">
         <v>35.4</v>
       </c>
       <c r="M39" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N39" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O39" t="b">
         <v>0</v>
@@ -3256,52 +2791,43 @@
       <c r="T39" t="s">
         <v>7</v>
       </c>
-      <c r="U39" t="s">
-        <v>136</v>
-      </c>
-      <c r="W39" t="s">
-        <v>139</v>
-      </c>
-      <c r="X39" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24">
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B40">
         <v>2023</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F40">
         <v>60.4</v>
       </c>
       <c r="H40" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J40" t="s">
+        <v>113</v>
+      </c>
+      <c r="K40" t="s">
         <v>117</v>
-      </c>
-      <c r="K40" t="s">
-        <v>121</v>
       </c>
       <c r="L40">
         <v>60.4</v>
       </c>
       <c r="M40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N40" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O40" t="b">
         <v>0</v>
@@ -3318,52 +2844,43 @@
       <c r="T40" t="s">
         <v>7</v>
       </c>
-      <c r="U40" t="s">
-        <v>136</v>
-      </c>
-      <c r="W40" t="s">
-        <v>139</v>
-      </c>
-      <c r="X40" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24">
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B41">
         <v>2023</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E41" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F41">
         <v>86.59999999999999</v>
       </c>
       <c r="H41" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J41" t="s">
+        <v>113</v>
+      </c>
+      <c r="K41" t="s">
         <v>117</v>
-      </c>
-      <c r="K41" t="s">
-        <v>121</v>
       </c>
       <c r="L41">
         <v>86.59999999999999</v>
       </c>
       <c r="M41" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N41" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O41" t="b">
         <v>0</v>
@@ -3380,52 +2897,43 @@
       <c r="T41" t="s">
         <v>7</v>
       </c>
-      <c r="U41" t="s">
-        <v>136</v>
-      </c>
-      <c r="W41" t="s">
-        <v>139</v>
-      </c>
-      <c r="X41" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24">
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B42">
         <v>2023</v>
       </c>
       <c r="C42" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E42" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F42">
         <v>1.5</v>
       </c>
       <c r="H42" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J42" t="s">
+        <v>113</v>
+      </c>
+      <c r="K42" t="s">
         <v>117</v>
-      </c>
-      <c r="K42" t="s">
-        <v>121</v>
       </c>
       <c r="L42">
         <v>1.5</v>
       </c>
       <c r="M42" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N42" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O42" t="b">
         <v>0</v>
@@ -3442,52 +2950,43 @@
       <c r="T42" t="s">
         <v>7</v>
       </c>
-      <c r="U42" t="s">
-        <v>136</v>
-      </c>
-      <c r="W42" t="s">
-        <v>139</v>
-      </c>
-      <c r="X42" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24">
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D43" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E43" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F43">
         <v>399.3</v>
       </c>
       <c r="H43" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J43" t="s">
+        <v>113</v>
+      </c>
+      <c r="K43" t="s">
         <v>117</v>
-      </c>
-      <c r="K43" t="s">
-        <v>121</v>
       </c>
       <c r="L43">
         <v>399.3</v>
       </c>
       <c r="M43" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N43" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O43" t="b">
         <v>0</v>
@@ -3504,52 +3003,43 @@
       <c r="T43" t="s">
         <v>7</v>
       </c>
-      <c r="U43" t="s">
-        <v>136</v>
-      </c>
-      <c r="W43" t="s">
-        <v>139</v>
-      </c>
-      <c r="X43" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24">
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E44" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F44">
         <v>46.2</v>
       </c>
       <c r="H44" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J44" t="s">
+        <v>113</v>
+      </c>
+      <c r="K44" t="s">
         <v>117</v>
-      </c>
-      <c r="K44" t="s">
-        <v>121</v>
       </c>
       <c r="L44">
         <v>46.2</v>
       </c>
       <c r="M44" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N44" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O44" t="b">
         <v>0</v>
@@ -3566,52 +3056,43 @@
       <c r="T44" t="s">
         <v>7</v>
       </c>
-      <c r="U44" t="s">
-        <v>136</v>
-      </c>
-      <c r="W44" t="s">
-        <v>139</v>
-      </c>
-      <c r="X44" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24">
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F45">
         <v>4.5</v>
       </c>
       <c r="H45" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J45" t="s">
+        <v>113</v>
+      </c>
+      <c r="K45" t="s">
         <v>117</v>
-      </c>
-      <c r="K45" t="s">
-        <v>121</v>
       </c>
       <c r="L45">
         <v>4.5</v>
       </c>
       <c r="M45" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N45" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O45" t="b">
         <v>0</v>
@@ -3628,52 +3109,43 @@
       <c r="T45" t="s">
         <v>7</v>
       </c>
-      <c r="U45" t="s">
-        <v>136</v>
-      </c>
-      <c r="W45" t="s">
-        <v>139</v>
-      </c>
-      <c r="X45" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24">
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B46">
         <v>2023</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D46" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F46">
         <v>200.2</v>
       </c>
       <c r="H46" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J46" t="s">
+        <v>113</v>
+      </c>
+      <c r="K46" t="s">
         <v>117</v>
-      </c>
-      <c r="K46" t="s">
-        <v>121</v>
       </c>
       <c r="L46">
         <v>200.2</v>
       </c>
       <c r="M46" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N46" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O46" t="b">
         <v>0</v>
@@ -3690,52 +3162,43 @@
       <c r="T46" t="s">
         <v>7</v>
       </c>
-      <c r="U46" t="s">
-        <v>136</v>
-      </c>
-      <c r="W46" t="s">
-        <v>139</v>
-      </c>
-      <c r="X46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24">
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B47">
         <v>2023</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D47" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E47" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F47">
         <v>5069.3</v>
       </c>
       <c r="H47" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J47" t="s">
+        <v>113</v>
+      </c>
+      <c r="K47" t="s">
         <v>117</v>
-      </c>
-      <c r="K47" t="s">
-        <v>121</v>
       </c>
       <c r="L47">
         <v>5069.3</v>
       </c>
       <c r="M47" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N47" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O47" t="b">
         <v>0</v>
@@ -3752,52 +3215,43 @@
       <c r="T47" t="s">
         <v>7</v>
       </c>
-      <c r="U47" t="s">
-        <v>136</v>
-      </c>
-      <c r="W47" t="s">
-        <v>139</v>
-      </c>
-      <c r="X47" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24">
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B48">
         <v>2023</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E48" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F48">
         <v>18.9</v>
       </c>
       <c r="H48" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J48" t="s">
+        <v>113</v>
+      </c>
+      <c r="K48" t="s">
         <v>117</v>
-      </c>
-      <c r="K48" t="s">
-        <v>121</v>
       </c>
       <c r="L48">
         <v>18.9</v>
       </c>
       <c r="M48" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N48" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O48" t="b">
         <v>0</v>
@@ -3814,52 +3268,43 @@
       <c r="T48" t="s">
         <v>7</v>
       </c>
-      <c r="U48" t="s">
-        <v>136</v>
-      </c>
-      <c r="W48" t="s">
-        <v>139</v>
-      </c>
-      <c r="X48" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24">
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B49">
         <v>2023</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D49" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E49" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F49">
         <v>539</v>
       </c>
       <c r="H49" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J49" t="s">
+        <v>113</v>
+      </c>
+      <c r="K49" t="s">
         <v>117</v>
-      </c>
-      <c r="K49" t="s">
-        <v>121</v>
       </c>
       <c r="L49">
         <v>539</v>
       </c>
       <c r="M49" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N49" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O49" t="b">
         <v>0</v>
@@ -3876,52 +3321,43 @@
       <c r="T49" t="s">
         <v>7</v>
       </c>
-      <c r="U49" t="s">
-        <v>136</v>
-      </c>
-      <c r="W49" t="s">
-        <v>139</v>
-      </c>
-      <c r="X49" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24">
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B50">
         <v>2023</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D50" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E50" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F50">
         <v>8.1</v>
       </c>
       <c r="H50" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J50" t="s">
+        <v>113</v>
+      </c>
+      <c r="K50" t="s">
         <v>117</v>
-      </c>
-      <c r="K50" t="s">
-        <v>121</v>
       </c>
       <c r="L50">
         <v>8.1</v>
       </c>
       <c r="M50" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N50" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O50" t="b">
         <v>0</v>
@@ -3938,52 +3374,43 @@
       <c r="T50" t="s">
         <v>7</v>
       </c>
-      <c r="U50" t="s">
-        <v>136</v>
-      </c>
-      <c r="W50" t="s">
-        <v>139</v>
-      </c>
-      <c r="X50" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24">
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B51">
         <v>2023</v>
       </c>
       <c r="C51" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D51" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E51" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F51">
         <v>1955.7</v>
       </c>
       <c r="H51" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J51" t="s">
+        <v>111</v>
+      </c>
+      <c r="K51" t="s">
         <v>115</v>
-      </c>
-      <c r="K51" t="s">
-        <v>119</v>
       </c>
       <c r="L51">
         <v>1955.7</v>
       </c>
       <c r="M51" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N51" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O51" t="b">
         <v>0</v>
@@ -3999,15 +3426,6 @@
       </c>
       <c r="T51" t="s">
         <v>7</v>
-      </c>
-      <c r="U51" t="s">
-        <v>137</v>
-      </c>
-      <c r="W51" t="s">
-        <v>139</v>
-      </c>
-      <c r="X51" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/MetalliCan/cleaned_data/material_df_sd_norm.xlsx
+++ b/data/MetalliCan/cleaned_data/material_df_sd_norm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="144">
   <si>
     <t>technosphere_id</t>
   </si>
@@ -76,6 +76,18 @@
     <t>normalization_key</t>
   </si>
   <si>
+    <t>facility_name</t>
+  </si>
+  <si>
+    <t>facility_group_name</t>
+  </si>
+  <si>
+    <t>mining_processing_type</t>
+  </si>
+  <si>
+    <t>commodities</t>
+  </si>
+  <si>
     <t>TECH-6dc537e6-2023-2</t>
   </si>
   <si>
@@ -389,6 +401,51 @@
   </si>
   <si>
     <t>kg/1000</t>
+  </si>
+  <si>
+    <t>Éléonore</t>
+  </si>
+  <si>
+    <t>Island</t>
+  </si>
+  <si>
+    <t>Musselwhite</t>
+  </si>
+  <si>
+    <t>New Afton</t>
+  </si>
+  <si>
+    <t>Hoyle Pond</t>
+  </si>
+  <si>
+    <t>Rainy River</t>
+  </si>
+  <si>
+    <t>Westwood-Doyon</t>
+  </si>
+  <si>
+    <t>Young-Davidson</t>
+  </si>
+  <si>
+    <t>Porcupine complex</t>
+  </si>
+  <si>
+    <t>Underground, concentrator</t>
+  </si>
+  <si>
+    <t>Underground</t>
+  </si>
+  <si>
+    <t>Open-pit, underground, concentrator</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Gold, silver</t>
+  </si>
+  <si>
+    <t>Gold, copper, silver</t>
   </si>
 </sst>
 </file>
@@ -746,13 +803,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T51"/>
+  <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -813,43 +870,55 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>2023</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F2">
         <v>27374</v>
       </c>
       <c r="H2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L2">
         <v>27374</v>
       </c>
       <c r="M2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O2" t="b">
         <v>0</v>
@@ -866,43 +935,52 @@
       <c r="T2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2" t="s">
+        <v>129</v>
+      </c>
+      <c r="W2" t="s">
+        <v>138</v>
+      </c>
+      <c r="X2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>2023</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F3">
         <v>2229</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L3">
         <v>2229</v>
       </c>
       <c r="M3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
@@ -919,43 +997,52 @@
       <c r="T3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3" t="s">
+        <v>129</v>
+      </c>
+      <c r="W3" t="s">
+        <v>138</v>
+      </c>
+      <c r="X3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>2023</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F4">
         <v>380.687</v>
       </c>
       <c r="H4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L4">
         <v>335.00456</v>
       </c>
       <c r="M4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="N4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="O4" t="b">
         <v>0</v>
@@ -972,40 +1059,49 @@
       <c r="T4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4" t="s">
+        <v>129</v>
+      </c>
+      <c r="W4" t="s">
+        <v>138</v>
+      </c>
+      <c r="X4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>2023</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F5">
         <v>26575</v>
       </c>
       <c r="H5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="O5" t="b">
         <v>1</v>
@@ -1019,43 +1115,52 @@
       <c r="T5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5" t="s">
+        <v>129</v>
+      </c>
+      <c r="W5" t="s">
+        <v>138</v>
+      </c>
+      <c r="X5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>2023</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F6">
         <v>838.8</v>
       </c>
       <c r="H6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L6">
         <v>838.8</v>
       </c>
       <c r="M6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O6" t="b">
         <v>0</v>
@@ -1072,40 +1177,49 @@
       <c r="T6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="U6" t="s">
+        <v>129</v>
+      </c>
+      <c r="W6" t="s">
+        <v>138</v>
+      </c>
+      <c r="X6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>2023</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F7">
         <v>73.95999999999999</v>
       </c>
       <c r="H7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
@@ -1119,43 +1233,52 @@
       <c r="T7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7" t="s">
+        <v>129</v>
+      </c>
+      <c r="W7" t="s">
+        <v>138</v>
+      </c>
+      <c r="X7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>2023</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F8">
         <v>241.250566996281</v>
       </c>
       <c r="H8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L8">
         <v>241.250566996281</v>
       </c>
       <c r="M8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N8" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
@@ -1172,43 +1295,52 @@
       <c r="T8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8" t="s">
+        <v>129</v>
+      </c>
+      <c r="W8" t="s">
+        <v>138</v>
+      </c>
+      <c r="X8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>2023</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F9">
         <v>245</v>
       </c>
       <c r="H9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L9">
         <v>245</v>
       </c>
       <c r="M9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O9" t="b">
         <v>0</v>
@@ -1225,43 +1357,52 @@
       <c r="T9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9" t="s">
+        <v>130</v>
+      </c>
+      <c r="W9" t="s">
+        <v>138</v>
+      </c>
+      <c r="X9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>2023</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F10">
         <v>486.3</v>
       </c>
       <c r="H10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L10">
         <v>486.3</v>
       </c>
       <c r="M10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O10" t="b">
         <v>0</v>
@@ -1278,43 +1419,52 @@
       <c r="T10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10" t="s">
+        <v>130</v>
+      </c>
+      <c r="W10" t="s">
+        <v>138</v>
+      </c>
+      <c r="X10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>2023</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F11">
         <v>9417.6</v>
       </c>
       <c r="H11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L11">
         <v>9417.6</v>
       </c>
       <c r="M11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O11" t="b">
         <v>0</v>
@@ -1331,40 +1481,49 @@
       <c r="T11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11" t="s">
+        <v>131</v>
+      </c>
+      <c r="W11" t="s">
+        <v>138</v>
+      </c>
+      <c r="X11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>2023</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F12">
         <v>57.2</v>
       </c>
       <c r="H12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M12" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="O12" t="b">
         <v>1</v>
@@ -1378,43 +1537,52 @@
       <c r="T12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12" t="s">
+        <v>131</v>
+      </c>
+      <c r="W12" t="s">
+        <v>138</v>
+      </c>
+      <c r="X12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>2023</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F13">
         <v>924.081</v>
       </c>
       <c r="H13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L13">
         <v>924.081</v>
       </c>
       <c r="M13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N13" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O13" t="b">
         <v>0</v>
@@ -1431,43 +1599,52 @@
       <c r="T13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13" t="s">
+        <v>131</v>
+      </c>
+      <c r="W13" t="s">
+        <v>138</v>
+      </c>
+      <c r="X13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>2023</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F14">
         <v>336.521</v>
       </c>
       <c r="H14" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J14" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L14">
         <v>296.13848</v>
       </c>
       <c r="M14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="N14" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="O14" t="b">
         <v>0</v>
@@ -1484,43 +1661,52 @@
       <c r="T14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14" t="s">
+        <v>131</v>
+      </c>
+      <c r="W14" t="s">
+        <v>138</v>
+      </c>
+      <c r="X14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>2023</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F15">
         <v>390.003</v>
       </c>
       <c r="H15" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K15" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L15">
         <v>390.003</v>
       </c>
       <c r="M15" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O15" t="b">
         <v>0</v>
@@ -1537,43 +1723,52 @@
       <c r="T15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="U15" t="s">
+        <v>131</v>
+      </c>
+      <c r="W15" t="s">
+        <v>138</v>
+      </c>
+      <c r="X15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>2023</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F16">
         <v>100.705343372947</v>
       </c>
       <c r="H16" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J16" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K16" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L16">
         <v>100.705343372947</v>
       </c>
       <c r="M16" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N16" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O16" t="b">
         <v>0</v>
@@ -1590,43 +1785,52 @@
       <c r="T16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="U16" t="s">
+        <v>131</v>
+      </c>
+      <c r="W16" t="s">
+        <v>138</v>
+      </c>
+      <c r="X16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>2023</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F17">
         <v>980</v>
       </c>
       <c r="H17" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J17" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K17" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L17">
         <v>980</v>
       </c>
       <c r="M17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N17" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O17" t="b">
         <v>0</v>
@@ -1643,43 +1847,52 @@
       <c r="T17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="U17" t="s">
+        <v>132</v>
+      </c>
+      <c r="W17" t="s">
+        <v>138</v>
+      </c>
+      <c r="X17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>2023</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F18">
         <v>179</v>
       </c>
       <c r="H18" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J18" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K18" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L18">
         <v>179</v>
       </c>
       <c r="M18" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N18" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O18" t="b">
         <v>0</v>
@@ -1696,43 +1909,52 @@
       <c r="T18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="U18" t="s">
+        <v>132</v>
+      </c>
+      <c r="W18" t="s">
+        <v>138</v>
+      </c>
+      <c r="X18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>2023</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F19">
         <v>38000</v>
       </c>
       <c r="H19" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J19" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K19" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L19">
         <v>38</v>
       </c>
       <c r="M19" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="N19" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O19" t="b">
         <v>0</v>
@@ -1749,43 +1971,52 @@
       <c r="T19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19" t="s">
+        <v>132</v>
+      </c>
+      <c r="W19" t="s">
+        <v>138</v>
+      </c>
+      <c r="X19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>2023</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F20">
         <v>192</v>
       </c>
       <c r="H20" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J20" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K20" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L20">
         <v>192</v>
       </c>
       <c r="M20" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N20" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O20" t="b">
         <v>0</v>
@@ -1802,43 +2033,52 @@
       <c r="T20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="U20" t="s">
+        <v>132</v>
+      </c>
+      <c r="W20" t="s">
+        <v>138</v>
+      </c>
+      <c r="X20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>2023</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F21">
         <v>2724</v>
       </c>
       <c r="H21" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J21" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K21" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L21">
         <v>2724</v>
       </c>
       <c r="M21" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N21" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O21" t="b">
         <v>0</v>
@@ -1855,43 +2095,52 @@
       <c r="T21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="U21" t="s">
+        <v>132</v>
+      </c>
+      <c r="W21" t="s">
+        <v>138</v>
+      </c>
+      <c r="X21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>2023</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F22">
         <v>55</v>
       </c>
       <c r="H22" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J22" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K22" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L22">
         <v>55</v>
       </c>
       <c r="M22" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O22" t="b">
         <v>0</v>
@@ -1908,43 +2157,52 @@
       <c r="T22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="U22" t="s">
+        <v>132</v>
+      </c>
+      <c r="W22" t="s">
+        <v>138</v>
+      </c>
+      <c r="X22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>2023</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F23">
         <v>583</v>
       </c>
       <c r="H23" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J23" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K23" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L23">
         <v>583</v>
       </c>
       <c r="M23" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N23" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O23" t="b">
         <v>0</v>
@@ -1961,43 +2219,52 @@
       <c r="T23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="U23" t="s">
+        <v>132</v>
+      </c>
+      <c r="W23" t="s">
+        <v>138</v>
+      </c>
+      <c r="X23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>2023</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F24">
         <v>12578</v>
       </c>
       <c r="I24" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J24" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K24" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L24">
         <v>12578</v>
       </c>
       <c r="M24" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N24" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O24" t="b">
         <v>0</v>
@@ -2014,40 +2281,52 @@
       <c r="T24" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="U24" t="s">
+        <v>133</v>
+      </c>
+      <c r="V24" t="s">
+        <v>137</v>
+      </c>
+      <c r="W24" t="s">
+        <v>139</v>
+      </c>
+      <c r="X24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>2023</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F25">
         <v>2.255</v>
       </c>
       <c r="I25" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J25" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K25" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N25" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="O25" t="b">
         <v>1</v>
@@ -2061,43 +2340,55 @@
       <c r="T25" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="U25" t="s">
+        <v>133</v>
+      </c>
+      <c r="V25" t="s">
+        <v>137</v>
+      </c>
+      <c r="W25" t="s">
+        <v>139</v>
+      </c>
+      <c r="X25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>2023</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F26">
         <v>4346.921</v>
       </c>
       <c r="I26" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J26" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K26" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L26">
         <v>4346.921</v>
       </c>
       <c r="M26" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N26" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O26" t="b">
         <v>0</v>
@@ -2114,43 +2405,55 @@
       <c r="T26" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="U26" t="s">
+        <v>133</v>
+      </c>
+      <c r="V26" t="s">
+        <v>137</v>
+      </c>
+      <c r="W26" t="s">
+        <v>139</v>
+      </c>
+      <c r="X26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>2023</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F27">
         <v>619.366</v>
       </c>
       <c r="I27" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J27" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K27" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L27">
         <v>545.0420799999999</v>
       </c>
       <c r="M27" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="N27" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="O27" t="b">
         <v>0</v>
@@ -2167,40 +2470,52 @@
       <c r="T27" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="U27" t="s">
+        <v>133</v>
+      </c>
+      <c r="V27" t="s">
+        <v>137</v>
+      </c>
+      <c r="W27" t="s">
+        <v>139</v>
+      </c>
+      <c r="X27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>2023</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F28">
         <v>175</v>
       </c>
       <c r="I28" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J28" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K28" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M28" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N28" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="O28" t="b">
         <v>1</v>
@@ -2214,43 +2529,55 @@
       <c r="T28" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="U28" t="s">
+        <v>133</v>
+      </c>
+      <c r="V28" t="s">
+        <v>137</v>
+      </c>
+      <c r="W28" t="s">
+        <v>139</v>
+      </c>
+      <c r="X28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>2023</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F29">
         <v>734.521</v>
       </c>
       <c r="I29" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J29" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K29" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L29">
         <v>734.521</v>
       </c>
       <c r="M29" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N29" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O29" t="b">
         <v>0</v>
@@ -2267,40 +2594,52 @@
       <c r="T29" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="U29" t="s">
+        <v>133</v>
+      </c>
+      <c r="V29" t="s">
+        <v>137</v>
+      </c>
+      <c r="W29" t="s">
+        <v>139</v>
+      </c>
+      <c r="X29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>2023</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F30">
         <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J30" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K30" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M30" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N30" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
@@ -2314,43 +2653,55 @@
       <c r="T30" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="U30" t="s">
+        <v>133</v>
+      </c>
+      <c r="V30" t="s">
+        <v>137</v>
+      </c>
+      <c r="W30" t="s">
+        <v>139</v>
+      </c>
+      <c r="X30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>2023</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F31">
         <v>626.983579787717</v>
       </c>
       <c r="I31" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J31" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L31">
         <v>626.983579787717</v>
       </c>
       <c r="M31" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N31" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O31" t="b">
         <v>0</v>
@@ -2367,43 +2718,55 @@
       <c r="T31" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="U31" t="s">
+        <v>133</v>
+      </c>
+      <c r="V31" t="s">
+        <v>137</v>
+      </c>
+      <c r="W31" t="s">
+        <v>139</v>
+      </c>
+      <c r="X31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>2023</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F32">
         <v>5977.02</v>
       </c>
       <c r="H32" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J32" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K32" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L32">
         <v>5977.02</v>
       </c>
       <c r="M32" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N32" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O32" t="b">
         <v>0</v>
@@ -2420,43 +2783,52 @@
       <c r="T32" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="U32" t="s">
+        <v>134</v>
+      </c>
+      <c r="W32" t="s">
+        <v>140</v>
+      </c>
+      <c r="X32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>2023</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F33">
         <v>2819.39</v>
       </c>
       <c r="H33" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J33" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K33" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L33">
         <v>2819.39</v>
       </c>
       <c r="M33" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N33" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O33" t="b">
         <v>0</v>
@@ -2473,43 +2845,52 @@
       <c r="T33" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="U33" t="s">
+        <v>134</v>
+      </c>
+      <c r="W33" t="s">
+        <v>140</v>
+      </c>
+      <c r="X33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>2023</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F34">
         <v>231239.82</v>
       </c>
       <c r="H34" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J34" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K34" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L34">
         <v>231.23982</v>
       </c>
       <c r="M34" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="N34" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O34" t="b">
         <v>0</v>
@@ -2526,43 +2907,52 @@
       <c r="T34" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="U34" t="s">
+        <v>134</v>
+      </c>
+      <c r="W34" t="s">
+        <v>140</v>
+      </c>
+      <c r="X34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>2023</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F35">
         <v>526.21</v>
       </c>
       <c r="H35" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J35" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K35" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L35">
         <v>526.21</v>
       </c>
       <c r="M35" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N35" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O35" t="b">
         <v>0</v>
@@ -2579,43 +2969,52 @@
       <c r="T35" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="U35" t="s">
+        <v>134</v>
+      </c>
+      <c r="W35" t="s">
+        <v>140</v>
+      </c>
+      <c r="X35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>2023</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F36">
         <v>2269.57</v>
       </c>
       <c r="H36" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J36" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K36" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L36">
         <v>2269.57</v>
       </c>
       <c r="M36" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N36" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O36" t="b">
         <v>0</v>
@@ -2632,43 +3031,52 @@
       <c r="T36" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:20">
+      <c r="U36" t="s">
+        <v>134</v>
+      </c>
+      <c r="W36" t="s">
+        <v>140</v>
+      </c>
+      <c r="X36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>2023</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E37" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F37">
         <v>149.1</v>
       </c>
       <c r="H37" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J37" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K37" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L37">
         <v>149.1</v>
       </c>
       <c r="M37" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N37" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O37" t="b">
         <v>0</v>
@@ -2685,43 +3093,52 @@
       <c r="T37" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="U37" t="s">
+        <v>134</v>
+      </c>
+      <c r="W37" t="s">
+        <v>140</v>
+      </c>
+      <c r="X37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>2023</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E38" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F38">
         <v>6390.4</v>
       </c>
       <c r="H38" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J38" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K38" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L38">
         <v>6390.4</v>
       </c>
       <c r="M38" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N38" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O38" t="b">
         <v>0</v>
@@ -2738,43 +3155,52 @@
       <c r="T38" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="U38" t="s">
+        <v>134</v>
+      </c>
+      <c r="W38" t="s">
+        <v>140</v>
+      </c>
+      <c r="X38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>2023</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F39">
         <v>35.4</v>
       </c>
       <c r="H39" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J39" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K39" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L39">
         <v>35.4</v>
       </c>
       <c r="M39" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N39" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O39" t="b">
         <v>0</v>
@@ -2791,43 +3217,52 @@
       <c r="T39" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:20">
+      <c r="U39" t="s">
+        <v>135</v>
+      </c>
+      <c r="W39" t="s">
+        <v>138</v>
+      </c>
+      <c r="X39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>2023</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F40">
         <v>60.4</v>
       </c>
       <c r="H40" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J40" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K40" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L40">
         <v>60.4</v>
       </c>
       <c r="M40" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N40" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O40" t="b">
         <v>0</v>
@@ -2844,43 +3279,52 @@
       <c r="T40" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="U40" t="s">
+        <v>135</v>
+      </c>
+      <c r="W40" t="s">
+        <v>138</v>
+      </c>
+      <c r="X40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>2023</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F41">
         <v>86.59999999999999</v>
       </c>
       <c r="H41" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J41" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K41" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L41">
         <v>86.59999999999999</v>
       </c>
       <c r="M41" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N41" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O41" t="b">
         <v>0</v>
@@ -2897,43 +3341,52 @@
       <c r="T41" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:20">
+      <c r="U41" t="s">
+        <v>135</v>
+      </c>
+      <c r="W41" t="s">
+        <v>138</v>
+      </c>
+      <c r="X41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>2023</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E42" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F42">
         <v>1.5</v>
       </c>
       <c r="H42" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J42" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K42" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L42">
         <v>1.5</v>
       </c>
       <c r="M42" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N42" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O42" t="b">
         <v>0</v>
@@ -2950,43 +3403,52 @@
       <c r="T42" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:20">
+      <c r="U42" t="s">
+        <v>135</v>
+      </c>
+      <c r="W42" t="s">
+        <v>138</v>
+      </c>
+      <c r="X42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F43">
         <v>399.3</v>
       </c>
       <c r="H43" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J43" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K43" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L43">
         <v>399.3</v>
       </c>
       <c r="M43" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N43" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O43" t="b">
         <v>0</v>
@@ -3003,43 +3465,52 @@
       <c r="T43" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:20">
+      <c r="U43" t="s">
+        <v>135</v>
+      </c>
+      <c r="W43" t="s">
+        <v>138</v>
+      </c>
+      <c r="X43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D44" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E44" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F44">
         <v>46.2</v>
       </c>
       <c r="H44" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J44" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K44" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L44">
         <v>46.2</v>
       </c>
       <c r="M44" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N44" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O44" t="b">
         <v>0</v>
@@ -3056,43 +3527,52 @@
       <c r="T44" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:20">
+      <c r="U44" t="s">
+        <v>135</v>
+      </c>
+      <c r="W44" t="s">
+        <v>138</v>
+      </c>
+      <c r="X44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D45" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F45">
         <v>4.5</v>
       </c>
       <c r="H45" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J45" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K45" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L45">
         <v>4.5</v>
       </c>
       <c r="M45" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N45" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O45" t="b">
         <v>0</v>
@@ -3109,43 +3589,52 @@
       <c r="T45" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="U45" t="s">
+        <v>135</v>
+      </c>
+      <c r="W45" t="s">
+        <v>138</v>
+      </c>
+      <c r="X45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B46">
         <v>2023</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D46" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E46" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F46">
         <v>200.2</v>
       </c>
       <c r="H46" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J46" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K46" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L46">
         <v>200.2</v>
       </c>
       <c r="M46" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N46" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O46" t="b">
         <v>0</v>
@@ -3162,43 +3651,52 @@
       <c r="T46" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:20">
+      <c r="U46" t="s">
+        <v>135</v>
+      </c>
+      <c r="W46" t="s">
+        <v>138</v>
+      </c>
+      <c r="X46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B47">
         <v>2023</v>
       </c>
       <c r="C47" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D47" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E47" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F47">
         <v>5069.3</v>
       </c>
       <c r="H47" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J47" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K47" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L47">
         <v>5069.3</v>
       </c>
       <c r="M47" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N47" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O47" t="b">
         <v>0</v>
@@ -3215,43 +3713,52 @@
       <c r="T47" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:20">
+      <c r="U47" t="s">
+        <v>135</v>
+      </c>
+      <c r="W47" t="s">
+        <v>138</v>
+      </c>
+      <c r="X47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>2023</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D48" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E48" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F48">
         <v>18.9</v>
       </c>
       <c r="H48" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J48" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K48" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L48">
         <v>18.9</v>
       </c>
       <c r="M48" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N48" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O48" t="b">
         <v>0</v>
@@ -3268,43 +3775,52 @@
       <c r="T48" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:20">
+      <c r="U48" t="s">
+        <v>135</v>
+      </c>
+      <c r="W48" t="s">
+        <v>138</v>
+      </c>
+      <c r="X48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>2023</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D49" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E49" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F49">
         <v>539</v>
       </c>
       <c r="H49" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J49" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K49" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L49">
         <v>539</v>
       </c>
       <c r="M49" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N49" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O49" t="b">
         <v>0</v>
@@ -3321,43 +3837,52 @@
       <c r="T49" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:20">
+      <c r="U49" t="s">
+        <v>135</v>
+      </c>
+      <c r="W49" t="s">
+        <v>138</v>
+      </c>
+      <c r="X49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>2023</v>
       </c>
       <c r="C50" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D50" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E50" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F50">
         <v>8.1</v>
       </c>
       <c r="H50" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J50" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K50" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L50">
         <v>8.1</v>
       </c>
       <c r="M50" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N50" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O50" t="b">
         <v>0</v>
@@ -3374,43 +3899,52 @@
       <c r="T50" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:20">
+      <c r="U50" t="s">
+        <v>135</v>
+      </c>
+      <c r="W50" t="s">
+        <v>138</v>
+      </c>
+      <c r="X50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>2023</v>
       </c>
       <c r="C51" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D51" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E51" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F51">
         <v>1955.7</v>
       </c>
       <c r="H51" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="J51" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K51" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L51">
         <v>1955.7</v>
       </c>
       <c r="M51" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="N51" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O51" t="b">
         <v>0</v>
@@ -3426,6 +3960,15 @@
       </c>
       <c r="T51" t="s">
         <v>7</v>
+      </c>
+      <c r="U51" t="s">
+        <v>136</v>
+      </c>
+      <c r="W51" t="s">
+        <v>138</v>
+      </c>
+      <c r="X51" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
